--- a/08b.xlsx
+++ b/08b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/【連載】デジタルアドバンテージ/第8回/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907D2C79-ED56-41C3-B66A-A1A481801ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760A303-49B0-5943-8A61-DCD928FECE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{408B05B1-D106-4228-B063-C6E09CC14AAD}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="28800" windowHeight="16200" xr2:uid="{408B05B1-D106-4228-B063-C6E09CC14AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="可処分所得" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>家計可処分所得の推移</t>
     <rPh sb="0" eb="2">
@@ -71,6 +71,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>出典：内閣府（https://www.esri.cao.go.jp/jp/sna/data/data_list/kakei/files/2023/tables/kakei_23q1.xlsx）</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2543,24 +2547,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A059A26D-9294-4D46-90F3-1437EBE39E90}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.5625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1994</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>298065.90000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1995</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>302018.90000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1996</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>302022.40000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1997</v>
       </c>
@@ -2600,7 +2607,7 @@
         <v>309828.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -2608,7 +2615,7 @@
         <v>312031.40000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1999</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>308516.59999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -2624,7 +2631,7 @@
         <v>305716.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2001</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>294740.40000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2002</v>
       </c>
@@ -2640,7 +2647,7 @@
         <v>291365.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2003</v>
       </c>
@@ -2648,7 +2655,7 @@
         <v>287650</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -2656,7 +2663,7 @@
         <v>290608.90000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2005</v>
       </c>
@@ -2664,7 +2671,7 @@
         <v>293558.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -2672,7 +2679,7 @@
         <v>297777.09999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2007</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>299935.2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>2008</v>
       </c>
@@ -2688,7 +2695,7 @@
         <v>298285.40000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -2696,7 +2703,7 @@
         <v>293216</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>2010</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>291593</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -2712,7 +2719,7 @@
         <v>289462</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>289397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -2728,7 +2735,7 @@
         <v>289590.09999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -2736,7 +2743,7 @@
         <v>289308.3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2744,7 +2751,7 @@
         <v>292830</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -2752,7 +2759,7 @@
         <v>295307.40000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -2760,7 +2767,7 @@
         <v>297994.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -2768,7 +2775,7 @@
         <v>301549.90000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -2776,7 +2783,7 @@
         <v>306705.3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -2784,7 +2791,7 @@
         <v>319016.8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>308983.59999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:2">
       <c r="A32" s="4">
         <v>2022</v>
       </c>
@@ -2808,24 +2815,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0617ED45-71BA-4ED3-B6D1-594FB68E814F}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="10.5625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1994</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>298065.90000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1995</v>
       </c>
@@ -2849,7 +2859,7 @@
         <v>302018.90000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1996</v>
       </c>
@@ -2857,7 +2867,7 @@
         <v>302022.40000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1997</v>
       </c>
@@ -2865,7 +2875,7 @@
         <v>309828.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -2873,7 +2883,7 @@
         <v>312031.40000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1999</v>
       </c>
@@ -2881,7 +2891,7 @@
         <v>308516.59999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -2889,7 +2899,7 @@
         <v>305716.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2001</v>
       </c>
@@ -2897,7 +2907,7 @@
         <v>294740.40000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2002</v>
       </c>
@@ -2905,7 +2915,7 @@
         <v>291365.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2003</v>
       </c>
@@ -2913,7 +2923,7 @@
         <v>287650</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>290608.90000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2005</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>293558.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>297777.09999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2007</v>
       </c>
@@ -2945,7 +2955,7 @@
         <v>299935.2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>2008</v>
       </c>
@@ -2953,7 +2963,7 @@
         <v>298285.40000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -2961,7 +2971,7 @@
         <v>293216</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>2010</v>
       </c>
@@ -2969,7 +2979,7 @@
         <v>291593</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>289462</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -2985,7 +2995,7 @@
         <v>289397</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -2993,7 +3003,7 @@
         <v>289590.09999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -3001,7 +3011,7 @@
         <v>289308.3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -3009,7 +3019,7 @@
         <v>292830</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -3017,7 +3027,7 @@
         <v>295307.40000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -3025,7 +3035,7 @@
         <v>297994.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -3033,7 +3043,7 @@
         <v>301549.90000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>306705.3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -3049,7 +3059,7 @@
         <v>319016.8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -3057,7 +3067,7 @@
         <v>308983.59999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:2">
       <c r="A32" s="4">
         <v>2022</v>
       </c>
